--- a/resources/sqltest.xlsx
+++ b/resources/sqltest.xlsx
@@ -185,9 +185,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,9 +223,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -547,17 +543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -601,15 +598,17 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>42845.6508412037</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42846.024713957813</v>
+      <c r="C2">
+        <f ca="1">1491997760+RANDBETWEEN(0,10000000)</f>
+        <v>1493751091</v>
+      </c>
+      <c r="D2">
+        <f ca="1">C2+RANDBETWEEN(10000,30000)</f>
+        <v>1493767807</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDUP(RANDBETWEEN(1000,20000),-2)</f>
-        <v>4500</v>
+        <v>7900</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -619,7 +618,7 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -635,15 +634,17 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>42914.750841203699</v>
-      </c>
-      <c r="D3" s="1">
-        <v>42916.079781454682</v>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" ca="1" si="0">1491997760+RANDBETWEEN(0,10000000)</f>
+        <v>1496816062</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" ca="1" si="1">C3+RANDBETWEEN(10000,30000)</f>
+        <v>1496839913</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" ca="1" si="0">ROUNDUP(RANDBETWEEN(1000,20000),-2)</f>
-        <v>19500</v>
+        <f t="shared" ref="E3:E21" ca="1" si="2">ROUNDUP(RANDBETWEEN(1000,20000),-2)</f>
+        <v>8400</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -652,8 +653,8 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H21" ca="1" si="3">RANDBETWEEN(0,100)</f>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -669,15 +670,17 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>42885.950841203703</v>
-      </c>
-      <c r="D4" s="1">
-        <v>42886.986065324643</v>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1492843818</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1492854160</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>17100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11300</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -686,8 +689,8 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -703,15 +706,17 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>42910.450841203703</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42912.384497771964</v>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1492871699</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1492893735</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14300</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8500</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -720,8 +725,8 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -737,15 +742,17 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>42921.750841203699</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42922.225806607683</v>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1497124288</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1497143541</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6800</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19500</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -754,8 +761,8 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -771,15 +778,17 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>42922.1508412037</v>
-      </c>
-      <c r="D7" s="1">
-        <v>42924.010231550681</v>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1500619424</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1500629808</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12300</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8800</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -788,8 +797,8 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -805,15 +814,17 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>42892.450841203703</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42892.943333339026</v>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1494596640</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1494619465</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>12100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4000</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -822,8 +833,8 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -839,15 +850,17 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>42851.250841203699</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42851.718864967392</v>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1494276538</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1494297052</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7000</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -856,8 +869,8 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -873,15 +886,17 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
-        <v>42866.350841203704</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42866.521476286805</v>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1494776485</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1494797231</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7700</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5100</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -890,8 +905,8 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -907,15 +922,17 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>42910.350841203704</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42911.940290802479</v>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1494961117</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1494973541</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>18200</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>14300</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -924,8 +941,8 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -941,15 +958,17 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>42860.050841203702</v>
-      </c>
-      <c r="D12" s="1">
-        <v>42861.045400945797</v>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1493322053</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1493333942</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12200</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9100</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -958,8 +977,8 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -975,15 +994,17 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
-        <v>42933.6508412037</v>
-      </c>
-      <c r="D13" s="1">
-        <v>42935.15372804489</v>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1501434782</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1501445918</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>14800</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10300</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -992,8 +1013,8 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1009,15 +1030,17 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
-        <v>42894.6508412037</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42895.260868582031</v>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1492806948</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1492829799</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>15500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10200</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1026,8 +1049,8 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1043,15 +1066,17 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
-        <v>42843.350841203704</v>
-      </c>
-      <c r="D15" s="1">
-        <v>42844.016726907568</v>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1498169985</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1498194821</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>19600</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2500</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1060,8 +1085,8 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1077,15 +1102,17 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
-        <v>42909.850841203704</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42911.407536743718</v>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1498049098</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1498066318</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>15400</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6800</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1094,8 +1121,8 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1111,15 +1138,17 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
-        <v>42906.250841203699</v>
-      </c>
-      <c r="D17" s="1">
-        <v>42907.085843240638</v>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1499916645</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1499936584</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>15400</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1400</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1128,8 +1157,8 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1145,15 +1174,17 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
-        <v>42855.350841203704</v>
-      </c>
-      <c r="D18" s="1">
-        <v>42855.851651961959</v>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1492512659</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1492531301</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4900</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20000</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1162,8 +1193,8 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1179,15 +1210,17 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
-        <v>42912.350841203704</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42912.387308386111</v>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1496626644</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1496655156</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>14500</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1196,8 +1229,8 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -1213,15 +1246,17 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
-        <v>42875.250841203699</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42877.146639757346</v>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1499841583</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1499851927</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>14300</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13100</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1230,8 +1265,8 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1247,15 +1282,17 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
-        <v>42910.450841203703</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42910.549977139017</v>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1493118265</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1493135735</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>11500</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16900</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1264,8 +1301,8 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -1285,7 +1322,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1356,7 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1333,7 +1370,7 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1347,7 +1384,7 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1361,7 +1398,7 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1375,7 +1412,7 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1389,7 +1426,7 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/resources/sqltest.xlsx
+++ b/resources/sqltest.xlsx
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,16 +599,14 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f ca="1">1491997760+RANDBETWEEN(0,10000000)</f>
-        <v>1493751091</v>
+        <v>1498395476</v>
       </c>
       <c r="D2">
-        <f ca="1">C2+RANDBETWEEN(10000,30000)</f>
-        <v>1493767807</v>
+        <v>1498419113</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDUP(RANDBETWEEN(1000,20000),-2)</f>
-        <v>7900</v>
+        <v>14800</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -618,7 +616,7 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -635,16 +633,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" ca="1" si="0">1491997760+RANDBETWEEN(0,10000000)</f>
-        <v>1496816062</v>
+        <v>1493641600</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" ca="1" si="1">C3+RANDBETWEEN(10000,30000)</f>
-        <v>1496839913</v>
+        <v>1493664573</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" ca="1" si="2">ROUNDUP(RANDBETWEEN(1000,20000),-2)</f>
-        <v>8400</v>
+        <f t="shared" ref="E3:E21" ca="1" si="0">ROUNDUP(RANDBETWEEN(1000,20000),-2)</f>
+        <v>14400</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -653,8 +649,8 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <f t="shared" ref="H3:H21" ca="1" si="1">RANDBETWEEN(0,100)</f>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -671,16 +667,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1492843818</v>
+        <v>1499072500</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1492854160</v>
+        <v>1499086709</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="2"/>
-        <v>11300</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20000</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -689,8 +683,8 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -707,16 +701,14 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1492871699</v>
+        <v>1494467003</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1492893735</v>
+        <v>1494486866</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="2"/>
-        <v>8500</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1800</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -725,8 +717,8 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -743,16 +735,14 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1497124288</v>
+        <v>1496149552</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1497143541</v>
+        <v>1496160899</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="2"/>
-        <v>19500</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12200</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -761,8 +751,8 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -779,16 +769,14 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1500619424</v>
+        <v>1493872695</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1500629808</v>
+        <v>1493894630</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="2"/>
-        <v>8800</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10700</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -797,8 +785,8 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -815,16 +803,14 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1494596640</v>
+        <v>1499378496</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1494619465</v>
+        <v>1499398690</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="2"/>
-        <v>4000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19300</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -833,8 +819,8 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -851,16 +837,14 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1494276538</v>
+        <v>1495840881</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1494297052</v>
+        <v>1495868887</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="2"/>
-        <v>7000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7800</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -869,8 +853,8 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -887,16 +871,14 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1494776485</v>
+        <v>1495128614</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1494797231</v>
+        <v>1495148080</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="2"/>
-        <v>5100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10200</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -905,8 +887,8 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -923,16 +905,14 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1494961117</v>
+        <v>1493167797</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1494973541</v>
+        <v>1493183031</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="2"/>
-        <v>14300</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15900</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -941,8 +921,8 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -959,16 +939,14 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1493322053</v>
+        <v>1492645755</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1493333942</v>
+        <v>1492656868</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="2"/>
-        <v>9100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14700</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -977,8 +955,8 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -995,16 +973,14 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1501434782</v>
+        <v>1496794562</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1501445918</v>
+        <v>1496823770</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="2"/>
-        <v>10300</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15900</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1013,8 +989,8 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1031,16 +1007,14 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1492806948</v>
+        <v>1496398493</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1492829799</v>
+        <v>1496411379</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="2"/>
-        <v>10200</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11400</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1049,8 +1023,8 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1067,16 +1041,14 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1498169985</v>
+        <v>1494642920</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1498194821</v>
+        <v>1494657328</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="2"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10700</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1085,8 +1057,8 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1103,16 +1075,14 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1498049098</v>
+        <v>1495923276</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1498066318</v>
+        <v>1495936673</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="2"/>
-        <v>6800</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19800</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1121,8 +1091,8 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1139,16 +1109,14 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1499916645</v>
+        <v>1493938831</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1499936584</v>
+        <v>1493957671</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="2"/>
-        <v>1400</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7900</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1157,8 +1125,8 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1175,16 +1143,14 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1492512659</v>
+        <v>1496623915</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1492531301</v>
+        <v>1496651380</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="2"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13500</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1193,8 +1159,8 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1211,16 +1177,14 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1496626644</v>
+        <v>1496160373</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1496655156</v>
+        <v>1496174898</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="2"/>
-        <v>14500</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3600</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1229,8 +1193,8 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -1247,16 +1211,14 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1499841583</v>
+        <v>1498381106</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1499851927</v>
+        <v>1498407224</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="2"/>
-        <v>13100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4800</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1265,8 +1227,8 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1283,16 +1245,14 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1493118265</v>
+        <v>1494638004</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1493135735</v>
+        <v>1494648724</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="2"/>
-        <v>16900</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10300</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1301,8 +1261,8 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
